--- a/_docs/DB-csv sync Old-New.xlsx
+++ b/_docs/DB-csv sync Old-New.xlsx
@@ -66,10 +66,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -117,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -127,6 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,7 +419,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,10 +456,10 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -464,7 +473,7 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -475,15 +484,15 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_docs/DB-csv sync Old-New.xlsx
+++ b/_docs/DB-csv sync Old-New.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Магазин</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>price3</t>
-  </si>
-  <si>
-    <t>starting_bid</t>
   </si>
   <si>
     <t>optional_field_2</t>
@@ -419,7 +416,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,12 +429,12 @@
   <sheetData>
     <row r="1" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -454,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -468,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -482,13 +479,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
